--- a/Optimisation data/combined/Biomarkers + Clinical A/top/SHAP/LogisticRegression_optimisation.xlsx
+++ b/Optimisation data/combined/Biomarkers + Clinical A/top/SHAP/LogisticRegression_optimisation.xlsx
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.04877052307128906</v>
+        <v>0.005773782730102539</v>
       </c>
       <c r="C2">
-        <v>0.005838953509824532</v>
+        <v>0.001387119334192364</v>
       </c>
       <c r="D2">
-        <v>0.005707168579101562</v>
+        <v>0.002453947067260742</v>
       </c>
       <c r="E2">
-        <v>0.003889465917204307</v>
+        <v>0.0009246126602285256</v>
       </c>
       <c r="F2">
         <v>0.001</v>
@@ -695,16 +695,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02100057601928711</v>
+        <v>0.005405712127685547</v>
       </c>
       <c r="C3">
-        <v>0.01946733225846623</v>
+        <v>0.001822770543089027</v>
       </c>
       <c r="D3">
-        <v>0.002796602249145508</v>
+        <v>0.001738262176513672</v>
       </c>
       <c r="E3">
-        <v>0.002375747402713466</v>
+        <v>0.001064065696672684</v>
       </c>
       <c r="F3">
         <v>0.001</v>
@@ -781,16 +781,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.008058977127075196</v>
+        <v>0.001746988296508789</v>
       </c>
       <c r="C4">
-        <v>0.006343642932110218</v>
+        <v>0.0005380406310797586</v>
       </c>
       <c r="D4">
-        <v>0.003366994857788086</v>
+        <v>0.0007751941680908203</v>
       </c>
       <c r="E4">
-        <v>0.001432502214935205</v>
+        <v>5.536582506633495E-05</v>
       </c>
       <c r="F4">
         <v>0.001</v>
@@ -864,16 +864,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.005590963363647461</v>
+        <v>0.003672170639038086</v>
       </c>
       <c r="C5">
-        <v>0.002029794819744738</v>
+        <v>0.00144938825540057</v>
       </c>
       <c r="D5">
-        <v>0.002561712265014649</v>
+        <v>0.001158428192138672</v>
       </c>
       <c r="E5">
-        <v>0.001802960557820346</v>
+        <v>0.0004784638648038072</v>
       </c>
       <c r="F5">
         <v>0.001</v>
@@ -947,16 +947,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.00588221549987793</v>
+        <v>0.00190424919128418</v>
       </c>
       <c r="C6">
-        <v>0.00275512386715683</v>
+        <v>0.0004895047323137331</v>
       </c>
       <c r="D6">
-        <v>0.002562856674194336</v>
+        <v>0.0008974552154541015</v>
       </c>
       <c r="E6">
-        <v>0.0007158608515416846</v>
+        <v>0.0003121654216632886</v>
       </c>
       <c r="F6">
         <v>0.01</v>
@@ -1033,16 +1033,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.006805801391601562</v>
+        <v>0.002164363861083984</v>
       </c>
       <c r="C7">
-        <v>0.002659347039685749</v>
+        <v>6.449599351999547E-05</v>
       </c>
       <c r="D7">
-        <v>0.002963161468505859</v>
+        <v>0.0007542133331298828</v>
       </c>
       <c r="E7">
-        <v>0.001640630581717136</v>
+        <v>3.879257114415096E-05</v>
       </c>
       <c r="F7">
         <v>0.01</v>
@@ -1119,16 +1119,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.005584621429443359</v>
+        <v>0.001489782333374024</v>
       </c>
       <c r="C8">
-        <v>0.003470772205620974</v>
+        <v>6.328270469304457E-05</v>
       </c>
       <c r="D8">
-        <v>0.002041053771972656</v>
+        <v>0.0007410049438476562</v>
       </c>
       <c r="E8">
-        <v>0.0008200328667514864</v>
+        <v>9.298703601644034E-05</v>
       </c>
       <c r="F8">
         <v>0.01</v>
@@ -1202,16 +1202,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.006621170043945313</v>
+        <v>0.001821279525756836</v>
       </c>
       <c r="C9">
-        <v>0.002032142738128788</v>
+        <v>0.000198921523534491</v>
       </c>
       <c r="D9">
-        <v>0.001917219161987305</v>
+        <v>0.0006938934326171875</v>
       </c>
       <c r="E9">
-        <v>0.0005092745995501901</v>
+        <v>1.903983963114373E-05</v>
       </c>
       <c r="F9">
         <v>0.01</v>
@@ -1285,16 +1285,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.00506744384765625</v>
+        <v>0.00189824104309082</v>
       </c>
       <c r="C10">
-        <v>0.002503213996695657</v>
+        <v>0.0001192670110194489</v>
       </c>
       <c r="D10">
-        <v>0.001632881164550781</v>
+        <v>0.0007424354553222656</v>
       </c>
       <c r="E10">
-        <v>0.0003898987372571916</v>
+        <v>3.778313937817148E-05</v>
       </c>
       <c r="F10">
         <v>0.1</v>
@@ -1371,16 +1371,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.003505182266235351</v>
+        <v>0.001833057403564453</v>
       </c>
       <c r="C11">
-        <v>0.0004401425338651097</v>
+        <v>0.0001682022106085905</v>
       </c>
       <c r="D11">
-        <v>0.001307153701782227</v>
+        <v>0.0007028579711914062</v>
       </c>
       <c r="E11">
-        <v>4.204627740629062E-05</v>
+        <v>5.308099329067785E-05</v>
       </c>
       <c r="F11">
         <v>0.1</v>
@@ -1457,16 +1457,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.002797937393188476</v>
+        <v>0.001828527450561523</v>
       </c>
       <c r="C12">
-        <v>0.0002442810094562352</v>
+        <v>0.000630344918018385</v>
       </c>
       <c r="D12">
-        <v>0.001358175277709961</v>
+        <v>0.0008051395416259766</v>
       </c>
       <c r="E12">
-        <v>0.00010921263667672</v>
+        <v>0.0002328194231190658</v>
       </c>
       <c r="F12">
         <v>0.1</v>
@@ -1540,16 +1540,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.004728412628173828</v>
+        <v>0.001802396774291992</v>
       </c>
       <c r="C13">
-        <v>0.00174647802496968</v>
+        <v>0.0002787191872836242</v>
       </c>
       <c r="D13">
-        <v>0.001784801483154297</v>
+        <v>0.0007100582122802734</v>
       </c>
       <c r="E13">
-        <v>0.0004402438412006789</v>
+        <v>7.823318319715998E-05</v>
       </c>
       <c r="F13">
         <v>0.1</v>
@@ -1623,16 +1623,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.004822540283203125</v>
+        <v>0.00199127197265625</v>
       </c>
       <c r="C14">
-        <v>0.0008081307999893677</v>
+        <v>0.0005310252219676476</v>
       </c>
       <c r="D14">
-        <v>0.002367210388183594</v>
+        <v>0.000689697265625</v>
       </c>
       <c r="E14">
-        <v>0.0006635296639445125</v>
+        <v>4.229908447011366E-05</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1709,16 +1709,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.004930448532104492</v>
+        <v>0.001943016052246094</v>
       </c>
       <c r="C15">
-        <v>0.001450673461669812</v>
+        <v>0.0004175408341310815</v>
       </c>
       <c r="D15">
-        <v>0.001875925064086914</v>
+        <v>0.001000738143920898</v>
       </c>
       <c r="E15">
-        <v>0.000318166691504941</v>
+        <v>0.0005815304819620885</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1795,16 +1795,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.00491943359375</v>
+        <v>0.00172266960144043</v>
       </c>
       <c r="C16">
-        <v>0.002176725389360706</v>
+        <v>0.0002592130212230674</v>
       </c>
       <c r="D16">
-        <v>0.001647424697875977</v>
+        <v>0.0006938457489013671</v>
       </c>
       <c r="E16">
-        <v>0.0002225729774905201</v>
+        <v>3.536749772973585E-05</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1878,16 +1878,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.003825569152832031</v>
+        <v>0.001535272598266601</v>
       </c>
       <c r="C17">
-        <v>0.0004748884100660514</v>
+        <v>0.0001610624777795063</v>
       </c>
       <c r="D17">
-        <v>0.001980972290039062</v>
+        <v>0.0006433486938476563</v>
       </c>
       <c r="E17">
-        <v>0.0008889930333990189</v>
+        <v>4.158216874248606E-05</v>
       </c>
       <c r="F17">
         <v>1</v>
